--- a/config_multi.xls/task.xlsx
+++ b/config_multi.xls/task.xlsx
@@ -18,7 +18,6 @@
   <authors>
     <author/>
     <author>ASUS</author>
-    <author>ROG</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -220,29 +219,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">语言切换ID：
-1：英语
-2：印度语
-3：简体中文
-4：繁体中文
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -295,25 +277,13 @@
     <t>b_id</t>
   </si>
   <si>
-    <t>language_id</t>
-  </si>
-  <si>
     <t>1001,1000</t>
   </si>
   <si>
-    <t>21点</t>
-  </si>
-  <si>
-    <t>完成3局21点</t>
-  </si>
-  <si>
-    <t>BLACKJACK</t>
-  </si>
-  <si>
-    <t>Complete 3 games of Blackjack</t>
-  </si>
-  <si>
-    <t>पूरा 3 "BLACKJACK"</t>
+    <t>blackjackTitle</t>
+  </si>
+  <si>
+    <t>blackjackTask</t>
   </si>
 </sst>
 </file>
@@ -321,12 +291,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -352,6 +322,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF6897BB"/>
       <name val="微软雅黑"/>
@@ -366,89 +342,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,63 +477,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -527,6 +498,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -560,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,17 +730,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +750,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,30 +797,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -842,15 +827,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,188 +835,191 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1428,32 +1407,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="43.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="48.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16" style="3" customWidth="1"/>
-    <col min="14" max="14" width="38.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="34.125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.375" style="2" customWidth="1"/>
-    <col min="19" max="1025" width="9" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="43.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="48.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="16" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="34.125" style="4" customWidth="1"/>
+    <col min="17" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,53 +1440,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1519,37 +1493,34 @@
       <c r="C2" s="1">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3">
         <v>1000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:18">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1559,37 +1530,28 @@
       <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3">
         <v>1000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1599,258 +1561,220 @@
       <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="15" customHeight="1"/>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
     <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="30" spans="11:11">
-      <c r="K30" s="12"/>
+    <row r="28" spans="11:11">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="12"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="11:11">
-      <c r="K40" s="12"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="12"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="11:11">
-      <c r="K42" s="12"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="11:11">
-      <c r="K43" s="12"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="11:11">
-      <c r="K44" s="12"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="11:11">
-      <c r="K45" s="12"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="11:11">
-      <c r="K46" s="12"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="11:11">
-      <c r="K47" s="12"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="11:11">
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" s="13"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="5"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="K59" s="14"/>
+      <c r="A59" s="5"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="8"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="K60" s="14"/>
+      <c r="A60" s="5"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="8"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="K61" s="14"/>
+      <c r="A61" s="5"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="8"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="K62" s="14"/>
+      <c r="A62" s="5"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="K63" s="14"/>
+      <c r="A63" s="5"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="8"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="K64" s="14"/>
+      <c r="A64" s="5"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="K65" s="14"/>
+      <c r="A65" s="5"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="8"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="K66" s="14"/>
+      <c r="A66" s="5"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="8"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="K67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="K68" s="14"/>
+      <c r="A68" s="12"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="17"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="K69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="17"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="K70" s="14"/>
+      <c r="A70" s="12"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="17"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="K71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="17"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="K72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="17"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="K73" s="14"/>
+      <c r="A73" s="12"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="17"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="K74" s="14"/>
+      <c r="A74" s="12"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="17"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="K75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="17"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="K76" s="14"/>
+      <c r="A76" s="12"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="17"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="K77" s="14"/>
+      <c r="A77" s="13"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="17"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="K78" s="14"/>
+      <c r="A78" s="13"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="18"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="K79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="18"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="K80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="18"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="K81" s="14"/>
+      <c r="A81" s="13"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="18"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="K82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="18"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="K83" s="14"/>
+      <c r="A83" s="13"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="18"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="K84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="18"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="K85" s="14"/>
+      <c r="A85" s="13"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="18"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="K86" s="14"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="18"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="K87" s="14"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="18"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="K88" s="14"/>
+      <c r="A86" s="13"/>
+      <c r="K86" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>

--- a/config_multi.xls/task.xlsx
+++ b/config_multi.xls/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -277,13 +277,28 @@
     <t>b_id</t>
   </si>
   <si>
+    <t>1001,5000</t>
+  </si>
+  <si>
+    <t>blackjackTitle</t>
+  </si>
+  <si>
+    <t>blackjackTask</t>
+  </si>
+  <si>
+    <t>TexasHoldemTitle</t>
+  </si>
+  <si>
+    <t>TexasHoldemTask</t>
+  </si>
+  <si>
     <t>1001,1000</t>
   </si>
   <si>
-    <t>blackjackTitle</t>
-  </si>
-  <si>
-    <t>blackjackTask</t>
+    <t>shareTitle</t>
+  </si>
+  <si>
+    <t>shareTask</t>
   </si>
 </sst>
 </file>
@@ -291,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -342,12 +357,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -356,38 +423,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,96 +484,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -498,11 +518,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -536,187 +551,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,8 +748,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,24 +771,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,8 +798,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,168 +842,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1013,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1409,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1479,7 +1497,7 @@
       <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1497,7 +1515,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1516,7 +1534,7 @@
       <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1528,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -1547,9 +1565,15 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="11"/>
+      <c r="O3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1">
@@ -1559,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1571,81 +1595,71 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="4:17">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="9" ht="15" customHeight="1"/>
     <row r="10" ht="20.1" customHeight="1"/>
     <row r="11" ht="20.1" customHeight="1"/>
     <row r="12" ht="20.1" customHeight="1"/>
     <row r="28" spans="11:11">
-      <c r="K28" s="8"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="37" spans="11:11">
-      <c r="K37" s="8"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="8"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="8"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="11:11">
-      <c r="K40" s="8"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="8"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="11:11">
-      <c r="K42" s="8"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="11:11">
-      <c r="K43" s="8"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="11:11">
-      <c r="K44" s="8"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="11:11">
-      <c r="K45" s="8"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="1"/>
@@ -1658,123 +1672,123 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5"/>
-      <c r="K59" s="9"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5"/>
-      <c r="K60" s="9"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5"/>
-      <c r="K61" s="9"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5"/>
-      <c r="K62" s="9"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5"/>
-      <c r="K63" s="9"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5"/>
-      <c r="K64" s="9"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5"/>
-      <c r="K65" s="9"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5"/>
-      <c r="K66" s="9"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="12"/>
-      <c r="K67" s="9"/>
+      <c r="A67" s="13"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="12"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="13"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="12"/>
-      <c r="K69" s="9"/>
+      <c r="A69" s="13"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="12"/>
-      <c r="K70" s="9"/>
+      <c r="A70" s="13"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="12"/>
-      <c r="K71" s="9"/>
+      <c r="A71" s="13"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="12"/>
-      <c r="K72" s="9"/>
+      <c r="A72" s="13"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="12"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="13"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="12"/>
-      <c r="K74" s="9"/>
+      <c r="A74" s="13"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="12"/>
-      <c r="K75" s="9"/>
+      <c r="A75" s="13"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="12"/>
-      <c r="K76" s="9"/>
+      <c r="A76" s="13"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="13"/>
-      <c r="K77" s="9"/>
+      <c r="A77" s="14"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="13"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="14"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="13"/>
-      <c r="K79" s="9"/>
+      <c r="A79" s="14"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="13"/>
-      <c r="K80" s="9"/>
+      <c r="A80" s="14"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="13"/>
-      <c r="K81" s="9"/>
+      <c r="A81" s="14"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="13"/>
-      <c r="K82" s="9"/>
+      <c r="A82" s="14"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="13"/>
-      <c r="K83" s="9"/>
+      <c r="A83" s="14"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="13"/>
-      <c r="K84" s="9"/>
+      <c r="A84" s="14"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="13"/>
-      <c r="K85" s="9"/>
+      <c r="A85" s="14"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="13"/>
-      <c r="K86" s="9"/>
+      <c r="A86" s="14"/>
+      <c r="K86" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>

--- a/config_multi.xls/task.xlsx
+++ b/config_multi.xls/task.xlsx
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>shareTask</t>
+  </si>
+  <si>
+    <t>TexasHoldemTask1</t>
   </si>
 </sst>
 </file>
@@ -307,9 +310,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -366,12 +369,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +395,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -394,74 +412,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +426,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -483,31 +480,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -517,12 +526,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -551,181 +554,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,6 +745,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -765,6 +777,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,32 +825,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,152 +850,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,9 +1016,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1497,7 +1497,7 @@
       <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1565,13 +1565,13 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1602,64 +1602,86 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="4:17">
+    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="12"/>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1"/>
     <row r="10" ht="20.1" customHeight="1"/>
     <row r="11" ht="20.1" customHeight="1"/>
     <row r="12" ht="20.1" customHeight="1"/>
     <row r="28" spans="11:11">
-      <c r="K28" s="9"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="37" spans="11:11">
-      <c r="K37" s="9"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="9"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="9"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="11:11">
-      <c r="K40" s="9"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="9"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="11:11">
-      <c r="K42" s="9"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="11:11">
-      <c r="K43" s="9"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="11:11">
-      <c r="K44" s="9"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="11:11">
-      <c r="K45" s="9"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="1"/>
@@ -1672,123 +1694,123 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5"/>
-      <c r="K57" s="10"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5"/>
-      <c r="K58" s="10"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5"/>
-      <c r="K59" s="10"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5"/>
-      <c r="K61" s="10"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5"/>
-      <c r="K63" s="10"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5"/>
-      <c r="K64" s="10"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5"/>
-      <c r="K65" s="10"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5"/>
-      <c r="K66" s="10"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="13"/>
-      <c r="K67" s="10"/>
+      <c r="A67" s="12"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="13"/>
-      <c r="K68" s="10"/>
+      <c r="A68" s="12"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="13"/>
-      <c r="K69" s="10"/>
+      <c r="A69" s="12"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="13"/>
-      <c r="K70" s="10"/>
+      <c r="A70" s="12"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="13"/>
-      <c r="K71" s="10"/>
+      <c r="A71" s="12"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="13"/>
-      <c r="K72" s="10"/>
+      <c r="A72" s="12"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="13"/>
-      <c r="K73" s="10"/>
+      <c r="A73" s="12"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="13"/>
-      <c r="K74" s="10"/>
+      <c r="A74" s="12"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="13"/>
-      <c r="K75" s="10"/>
+      <c r="A75" s="12"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="13"/>
-      <c r="K76" s="10"/>
+      <c r="A76" s="12"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="14"/>
-      <c r="K77" s="10"/>
+      <c r="A77" s="13"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="14"/>
-      <c r="K78" s="10"/>
+      <c r="A78" s="13"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="14"/>
-      <c r="K79" s="10"/>
+      <c r="A79" s="13"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="14"/>
-      <c r="K80" s="10"/>
+      <c r="A80" s="13"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="14"/>
-      <c r="K81" s="10"/>
+      <c r="A81" s="13"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="14"/>
-      <c r="K82" s="10"/>
+      <c r="A82" s="13"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="14"/>
-      <c r="K83" s="10"/>
+      <c r="A83" s="13"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="14"/>
-      <c r="K84" s="10"/>
+      <c r="A84" s="13"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="14"/>
-      <c r="K85" s="10"/>
+      <c r="A85" s="13"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="14"/>
-      <c r="K86" s="10"/>
+      <c r="A86" s="13"/>
+      <c r="K86" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
